--- a/experiments/pg/return_discount_increment/max_rew_mlp_3x64_corr_entropy_inp_time_step_3e_4_no_norm/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/max_rew_mlp_3x64_corr_entropy_inp_time_step_3e_4_no_norm/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3047"/>
+  <dimension ref="A1:C3089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40043,6 +40043,552 @@
         <v>14.00053285621781</v>
       </c>
     </row>
+    <row r="3048">
+      <c r="A3048" s="1" t="n">
+        <v>3046</v>
+      </c>
+      <c r="B3048" t="inlineStr">
+        <is>
+          <t>[0, 5, -7]</t>
+        </is>
+      </c>
+      <c r="C3048" t="n">
+        <v>15.28572233709476</v>
+      </c>
+    </row>
+    <row r="3049">
+      <c r="A3049" s="1" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B3049" t="inlineStr">
+        <is>
+          <t>[-1, 6, -7]</t>
+        </is>
+      </c>
+      <c r="C3049" t="n">
+        <v>14.97555531673779</v>
+      </c>
+    </row>
+    <row r="3050">
+      <c r="A3050" s="1" t="n">
+        <v>3048</v>
+      </c>
+      <c r="B3050" t="inlineStr">
+        <is>
+          <t>[7, -2, -6]</t>
+        </is>
+      </c>
+      <c r="C3050" t="n">
+        <v>14.06195343883236</v>
+      </c>
+    </row>
+    <row r="3051">
+      <c r="A3051" s="1" t="n">
+        <v>3049</v>
+      </c>
+      <c r="B3051" t="inlineStr">
+        <is>
+          <t>[6, -1, -4]</t>
+        </is>
+      </c>
+      <c r="C3051" t="n">
+        <v>14.43407948864752</v>
+      </c>
+    </row>
+    <row r="3052">
+      <c r="A3052" s="1" t="n">
+        <v>3050</v>
+      </c>
+      <c r="B3052" t="inlineStr">
+        <is>
+          <t>[4, 2, -6]</t>
+        </is>
+      </c>
+      <c r="C3052" t="n">
+        <v>14.26554181851618</v>
+      </c>
+    </row>
+    <row r="3053">
+      <c r="A3053" s="1" t="n">
+        <v>3051</v>
+      </c>
+      <c r="B3053" t="inlineStr">
+        <is>
+          <t>[0, 5, -5]</t>
+        </is>
+      </c>
+      <c r="C3053" t="n">
+        <v>15.28884288230845</v>
+      </c>
+    </row>
+    <row r="3054">
+      <c r="A3054" s="1" t="n">
+        <v>3052</v>
+      </c>
+      <c r="B3054" t="inlineStr">
+        <is>
+          <t>[1, 4, -6]</t>
+        </is>
+      </c>
+      <c r="C3054" t="n">
+        <v>15.20394382332994</v>
+      </c>
+    </row>
+    <row r="3055">
+      <c r="A3055" s="1" t="n">
+        <v>3053</v>
+      </c>
+      <c r="B3055" t="inlineStr">
+        <is>
+          <t>[-4, 6, -4]</t>
+        </is>
+      </c>
+      <c r="C3055" t="n">
+        <v>13.93494283265519</v>
+      </c>
+    </row>
+    <row r="3056">
+      <c r="A3056" s="1" t="n">
+        <v>3054</v>
+      </c>
+      <c r="B3056" t="inlineStr">
+        <is>
+          <t>[0, 5, -4]</t>
+        </is>
+      </c>
+      <c r="C3056" t="n">
+        <v>15.30325754584289</v>
+      </c>
+    </row>
+    <row r="3057">
+      <c r="A3057" s="1" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B3057" t="inlineStr">
+        <is>
+          <t>[-1, 5, -4]</t>
+        </is>
+      </c>
+      <c r="C3057" t="n">
+        <v>15.04361706071651</v>
+      </c>
+    </row>
+    <row r="3058">
+      <c r="A3058" s="1" t="n">
+        <v>3056</v>
+      </c>
+      <c r="B3058" t="inlineStr">
+        <is>
+          <t>[-1, 6, -4]</t>
+        </is>
+      </c>
+      <c r="C3058" t="n">
+        <v>15.04131883169828</v>
+      </c>
+    </row>
+    <row r="3059">
+      <c r="A3059" s="1" t="n">
+        <v>3057</v>
+      </c>
+      <c r="B3059" t="inlineStr">
+        <is>
+          <t>[0, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C3059" t="n">
+        <v>15.85964945753043</v>
+      </c>
+    </row>
+    <row r="3060">
+      <c r="A3060" s="1" t="n">
+        <v>3058</v>
+      </c>
+      <c r="B3060" t="inlineStr">
+        <is>
+          <t>[5, 2, -6]</t>
+        </is>
+      </c>
+      <c r="C3060" t="n">
+        <v>14.10379931732365</v>
+      </c>
+    </row>
+    <row r="3061">
+      <c r="A3061" s="1" t="n">
+        <v>3059</v>
+      </c>
+      <c r="B3061" t="inlineStr">
+        <is>
+          <t>[7, -2, -4]</t>
+        </is>
+      </c>
+      <c r="C3061" t="n">
+        <v>14.16188233000509</v>
+      </c>
+    </row>
+    <row r="3062">
+      <c r="A3062" s="1" t="n">
+        <v>3060</v>
+      </c>
+      <c r="B3062" t="inlineStr">
+        <is>
+          <t>[-1, 5, -3]</t>
+        </is>
+      </c>
+      <c r="C3062" t="n">
+        <v>15.00768879131732</v>
+      </c>
+    </row>
+    <row r="3063">
+      <c r="A3063" s="1" t="n">
+        <v>3061</v>
+      </c>
+      <c r="B3063" t="inlineStr">
+        <is>
+          <t>[7, -1, -5]</t>
+        </is>
+      </c>
+      <c r="C3063" t="n">
+        <v>14.33638116794155</v>
+      </c>
+    </row>
+    <row r="3064">
+      <c r="A3064" s="1" t="n">
+        <v>3062</v>
+      </c>
+      <c r="B3064" t="inlineStr">
+        <is>
+          <t>[0, 6, -6]</t>
+        </is>
+      </c>
+      <c r="C3064" t="n">
+        <v>15.3058721219751</v>
+      </c>
+    </row>
+    <row r="3065">
+      <c r="A3065" s="1" t="n">
+        <v>3063</v>
+      </c>
+      <c r="B3065" t="inlineStr">
+        <is>
+          <t>[0, 6, -7]</t>
+        </is>
+      </c>
+      <c r="C3065" t="n">
+        <v>15.29083894892729</v>
+      </c>
+    </row>
+    <row r="3066">
+      <c r="A3066" s="1" t="n">
+        <v>3064</v>
+      </c>
+      <c r="B3066" t="inlineStr">
+        <is>
+          <t>[0, 7, -7]</t>
+        </is>
+      </c>
+      <c r="C3066" t="n">
+        <v>15.30567959749544</v>
+      </c>
+    </row>
+    <row r="3067">
+      <c r="A3067" s="1" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B3067" t="inlineStr">
+        <is>
+          <t>[7, -1, -4]</t>
+        </is>
+      </c>
+      <c r="C3067" t="n">
+        <v>14.40713168736626</v>
+      </c>
+    </row>
+    <row r="3068">
+      <c r="A3068" s="1" t="n">
+        <v>3066</v>
+      </c>
+      <c r="B3068" t="inlineStr">
+        <is>
+          <t>[0, 6, -1]</t>
+        </is>
+      </c>
+      <c r="C3068" t="n">
+        <v>18.20096342438711</v>
+      </c>
+    </row>
+    <row r="3069">
+      <c r="A3069" s="1" t="n">
+        <v>3067</v>
+      </c>
+      <c r="B3069" t="inlineStr">
+        <is>
+          <t>[7, -1, -3]</t>
+        </is>
+      </c>
+      <c r="C3069" t="n">
+        <v>14.574244612021</v>
+      </c>
+    </row>
+    <row r="3070">
+      <c r="A3070" s="1" t="n">
+        <v>3068</v>
+      </c>
+      <c r="B3070" t="inlineStr">
+        <is>
+          <t>[4, 3, -4]</t>
+        </is>
+      </c>
+      <c r="C3070" t="n">
+        <v>14.05130368380875</v>
+      </c>
+    </row>
+    <row r="3071">
+      <c r="A3071" s="1" t="n">
+        <v>3069</v>
+      </c>
+      <c r="B3071" t="inlineStr">
+        <is>
+          <t>[2, 4, -7]</t>
+        </is>
+      </c>
+      <c r="C3071" t="n">
+        <v>14.80809407701546</v>
+      </c>
+    </row>
+    <row r="3072">
+      <c r="A3072" s="1" t="n">
+        <v>3070</v>
+      </c>
+      <c r="B3072" t="inlineStr">
+        <is>
+          <t>[-1, 6, -3]</t>
+        </is>
+      </c>
+      <c r="C3072" t="n">
+        <v>15.00815456990874</v>
+      </c>
+    </row>
+    <row r="3073">
+      <c r="A3073" s="1" t="n">
+        <v>3071</v>
+      </c>
+      <c r="B3073" t="inlineStr">
+        <is>
+          <t>[1, 5, -5]</t>
+        </is>
+      </c>
+      <c r="C3073" t="n">
+        <v>15.1646689388156</v>
+      </c>
+    </row>
+    <row r="3074">
+      <c r="A3074" s="1" t="n">
+        <v>3072</v>
+      </c>
+      <c r="B3074" t="inlineStr">
+        <is>
+          <t>[-3, 6, -4]</t>
+        </is>
+      </c>
+      <c r="C3074" t="n">
+        <v>14.21226413693196</v>
+      </c>
+    </row>
+    <row r="3075">
+      <c r="A3075" s="1" t="n">
+        <v>3073</v>
+      </c>
+      <c r="B3075" t="inlineStr">
+        <is>
+          <t>[7, -2, -7]</t>
+        </is>
+      </c>
+      <c r="C3075" t="n">
+        <v>14.05717189314715</v>
+      </c>
+    </row>
+    <row r="3076">
+      <c r="A3076" s="1" t="n">
+        <v>3074</v>
+      </c>
+      <c r="B3076" t="inlineStr">
+        <is>
+          <t>[7, 0, -4]</t>
+        </is>
+      </c>
+      <c r="C3076" t="n">
+        <v>14.7503870503488</v>
+      </c>
+    </row>
+    <row r="3077">
+      <c r="A3077" s="1" t="n">
+        <v>3075</v>
+      </c>
+      <c r="B3077" t="inlineStr">
+        <is>
+          <t>[6, -2, -7]</t>
+        </is>
+      </c>
+      <c r="C3077" t="n">
+        <v>14.06780589097803</v>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" s="1" t="n">
+        <v>3076</v>
+      </c>
+      <c r="B3078" t="inlineStr">
+        <is>
+          <t>[-3, 7, -5]</t>
+        </is>
+      </c>
+      <c r="C3078" t="n">
+        <v>14.16629096421105</v>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" s="1" t="n">
+        <v>3077</v>
+      </c>
+      <c r="B3079" t="inlineStr">
+        <is>
+          <t>[5, 1, -6]</t>
+        </is>
+      </c>
+      <c r="C3079" t="n">
+        <v>14.08681626842426</v>
+      </c>
+    </row>
+    <row r="3080">
+      <c r="A3080" s="1" t="n">
+        <v>3078</v>
+      </c>
+      <c r="B3080" t="inlineStr">
+        <is>
+          <t>[6, 1, -6]</t>
+        </is>
+      </c>
+      <c r="C3080" t="n">
+        <v>14.37187711524859</v>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" s="1" t="n">
+        <v>3079</v>
+      </c>
+      <c r="B3081" t="inlineStr">
+        <is>
+          <t>[6, 1, -7]</t>
+        </is>
+      </c>
+      <c r="C3081" t="n">
+        <v>14.37086333476918</v>
+      </c>
+    </row>
+    <row r="3082">
+      <c r="A3082" s="1" t="n">
+        <v>3080</v>
+      </c>
+      <c r="B3082" t="inlineStr">
+        <is>
+          <t>[6, 0, -7]</t>
+        </is>
+      </c>
+      <c r="C3082" t="n">
+        <v>14.66662159871884</v>
+      </c>
+    </row>
+    <row r="3083">
+      <c r="A3083" s="1" t="n">
+        <v>3081</v>
+      </c>
+      <c r="B3083" t="inlineStr">
+        <is>
+          <t>[6, -1, -7]</t>
+        </is>
+      </c>
+      <c r="C3083" t="n">
+        <v>14.35013278483938</v>
+      </c>
+    </row>
+    <row r="3084">
+      <c r="A3084" s="1" t="n">
+        <v>3082</v>
+      </c>
+      <c r="B3084" t="inlineStr">
+        <is>
+          <t>[7, -1, -7]</t>
+        </is>
+      </c>
+      <c r="C3084" t="n">
+        <v>14.32892505968756</v>
+      </c>
+    </row>
+    <row r="3085">
+      <c r="A3085" s="1" t="n">
+        <v>3083</v>
+      </c>
+      <c r="B3085" t="inlineStr">
+        <is>
+          <t>[1, 5, -7]</t>
+        </is>
+      </c>
+      <c r="C3085" t="n">
+        <v>15.15443983808793</v>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" s="1" t="n">
+        <v>3084</v>
+      </c>
+      <c r="B3086" t="inlineStr">
+        <is>
+          <t>[3, 3, -5]</t>
+        </is>
+      </c>
+      <c r="C3086" t="n">
+        <v>14.22336862000474</v>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" s="1" t="n">
+        <v>3085</v>
+      </c>
+      <c r="B3087" t="inlineStr">
+        <is>
+          <t>[1, 5, -6]</t>
+        </is>
+      </c>
+      <c r="C3087" t="n">
+        <v>15.16977113423794</v>
+      </c>
+    </row>
+    <row r="3088">
+      <c r="A3088" s="1" t="n">
+        <v>3086</v>
+      </c>
+      <c r="B3088" t="inlineStr">
+        <is>
+          <t>[-1, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C3088" t="n">
+        <v>15.00169111896097</v>
+      </c>
+    </row>
+    <row r="3089">
+      <c r="A3089" s="1" t="n">
+        <v>3087</v>
+      </c>
+      <c r="B3089" t="inlineStr">
+        <is>
+          <t>[0, 6, -5]</t>
+        </is>
+      </c>
+      <c r="C3089" t="n">
+        <v>15.29647891018559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
